--- a/Story.xlsx
+++ b/Story.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e08665312b3026fe/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SYP_11_12\Ship4YouProjekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{CB8592EA-6ABD-4ACC-86D6-807B45DA4A4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A2A6B40-9CF2-4C05-8B21-3FAECB18E56D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B39FE4-4E09-450E-8A99-A555F9C79E33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E476734-5D8C-4AFF-BA34-D0B3BCE16C0A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E476734-5D8C-4AFF-BA34-D0B3BCE16C0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Story</t>
   </si>
@@ -136,6 +136,12 @@
     <t>+ Benachrichtigung wenn eine Nachricht geschickt wurde (per Email)
 - Andere Benutzer beleidigen 
 - falsche Informationen weitergeben</t>
+  </si>
+  <si>
+    <t>+ Download Button</t>
+  </si>
+  <si>
+    <t>Als ein User möchte ich mit das Dokument des Bootes herunterladen können</t>
   </si>
 </sst>
 </file>
@@ -151,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,12 +176,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -189,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -205,7 +205,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -543,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D4D997-9DCF-4FAF-B395-002D49F51A61}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,7 +642,7 @@
       <c r="D6" s="3">
         <v>13</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -658,7 +657,7 @@
       <c r="D7" s="3">
         <v>6</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -673,7 +672,7 @@
       <c r="D8" s="3">
         <v>7</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -688,7 +687,7 @@
       <c r="D9" s="3">
         <v>8</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -703,7 +702,7 @@
       <c r="D10" s="3">
         <v>5</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -734,6 +733,21 @@
         <v>5</v>
       </c>
       <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Story.xlsx
+++ b/Story.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SYP_11_12\Ship4YouProjekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Seafile\Meine Bibliothek\Schule\5AHIF\SYP\Ship4You\Ship4YouProjekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B39FE4-4E09-450E-8A99-A555F9C79E33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A6504A-DB76-43DA-B765-1C5AC42C612D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E476734-5D8C-4AFF-BA34-D0B3BCE16C0A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E476734-5D8C-4AFF-BA34-D0B3BCE16C0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Story</t>
   </si>
@@ -133,25 +133,36 @@
 + Formular ausfüllen (Bilder Upload)</t>
   </si>
   <si>
-    <t>+ Benachrichtigung wenn eine Nachricht geschickt wurde (per Email)
-- Andere Benutzer beleidigen 
-- falsche Informationen weitergeben</t>
-  </si>
-  <si>
     <t>+ Download Button</t>
   </si>
   <si>
     <t>Als ein User möchte ich mit das Dokument des Bootes herunterladen können</t>
+  </si>
+  <si>
+    <t>+ Nachricht über Email</t>
+  </si>
+  <si>
+    <t>Contact-Us-Side</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Email an Ship4You bei Fragen und Anregungen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,12 +183,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -185,11 +196,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,7 +228,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -542,20 +569,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D4D997-9DCF-4FAF-B395-002D49F51A61}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.44140625" customWidth="1"/>
-    <col min="3" max="3" width="89.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="3" max="3" width="89.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -569,7 +597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -584,7 +612,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -599,7 +627,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -614,7 +642,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -629,7 +657,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="106.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="106.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -644,7 +672,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -659,7 +687,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -674,7 +702,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -689,7 +717,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -704,7 +732,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -719,7 +747,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -727,27 +755,42 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3">
         <v>5</v>
       </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
       </c>
       <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Story.xlsx
+++ b/Story.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e08665312b3026fe/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Seafile\Meine Bibliothek\Schule\5AHIF\SYP\Ship4You\Ship4YouProjekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{CB8592EA-6ABD-4ACC-86D6-807B45DA4A4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A2A6B40-9CF2-4C05-8B21-3FAECB18E56D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A6504A-DB76-43DA-B765-1C5AC42C612D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E476734-5D8C-4AFF-BA34-D0B3BCE16C0A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E476734-5D8C-4AFF-BA34-D0B3BCE16C0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Story</t>
   </si>
@@ -133,16 +133,26 @@
 + Formular ausfüllen (Bilder Upload)</t>
   </si>
   <si>
-    <t>+ Benachrichtigung wenn eine Nachricht geschickt wurde (per Email)
-- Andere Benutzer beleidigen 
-- falsche Informationen weitergeben</t>
+    <t>+ Download Button</t>
+  </si>
+  <si>
+    <t>Als ein User möchte ich mit das Dokument des Bootes herunterladen können</t>
+  </si>
+  <si>
+    <t>+ Nachricht über Email</t>
+  </si>
+  <si>
+    <t>Contact-Us-Side</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Email an Ship4You bei Fragen und Anregungen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,8 +160,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,23 +183,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -204,8 +228,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -543,20 +569,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D4D997-9DCF-4FAF-B395-002D49F51A61}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.44140625" customWidth="1"/>
-    <col min="3" max="3" width="89.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="3" max="3" width="89.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -570,7 +597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -585,7 +612,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -600,7 +627,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -615,7 +642,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -630,7 +657,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="106.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="106.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -643,9 +670,9 @@
       <c r="D6" s="3">
         <v>13</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -658,9 +685,9 @@
       <c r="D7" s="3">
         <v>6</v>
       </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -673,9 +700,9 @@
       <c r="D8" s="3">
         <v>7</v>
       </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -688,9 +715,9 @@
       <c r="D9" s="3">
         <v>8</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -703,9 +730,9 @@
       <c r="D10" s="3">
         <v>5</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -720,7 +747,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -728,12 +755,42 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3">
         <v>5</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
